--- a/信用卡账单日和还款日.xlsx
+++ b/信用卡账单日和还款日.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,30 @@
   </si>
   <si>
     <t>17日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东白条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝花呗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,6 +575,34 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>18400</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>31900</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
